--- a/TestData/TestData2.xlsx
+++ b/TestData/TestData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="6390" firstSheet="13" activeTab="16"/>
+    <workbookView windowWidth="18930" windowHeight="5220" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="billingCheckout" sheetId="4" r:id="rId3"/>
     <sheet name="D2PCheckout" sheetId="5" r:id="rId4"/>
     <sheet name="Invoicecheckout" sheetId="6" r:id="rId5"/>
-    <sheet name="TeamCheckout" sheetId="7" r:id="rId6"/>
-    <sheet name="FlexCheckout" sheetId="8" r:id="rId7"/>
+    <sheet name="FlexCheckout" sheetId="8" r:id="rId6"/>
+    <sheet name="TeamCheckout" sheetId="7" r:id="rId7"/>
     <sheet name="OTCCheckout" sheetId="9" r:id="rId8"/>
     <sheet name="AddCreditCheckout" sheetId="10" r:id="rId9"/>
     <sheet name="P2PUpgarde" sheetId="11" r:id="rId10"/>
@@ -24,13 +24,21 @@
     <sheet name="DirectDebitCheckout" sheetId="16" r:id="rId15"/>
     <sheet name="SEPADirectDebitCheckout" sheetId="17" r:id="rId16"/>
     <sheet name="BrazilCheckout" sheetId="18" r:id="rId17"/>
+    <sheet name="PayPalCheckout" sheetId="19" r:id="rId18"/>
+    <sheet name="OTCCheckoutwithCredit" sheetId="20" r:id="rId19"/>
+    <sheet name="IPPMCheckout" sheetId="21" r:id="rId20"/>
+    <sheet name="CheckMissMatchCurrency" sheetId="22" r:id="rId21"/>
+    <sheet name="OTCCheckoutwithGBCredit" sheetId="23" r:id="rId22"/>
+    <sheet name="D2PEDUCheckout" sheetId="24" r:id="rId23"/>
+    <sheet name="MonthlyCheckoutAutorenew" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:W2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="128">
   <si>
     <t>Module</t>
   </si>
@@ -117,6 +125,24 @@
   </si>
   <si>
     <t>BrazilCheckout</t>
+  </si>
+  <si>
+    <t>PayPalCheckout</t>
+  </si>
+  <si>
+    <t>OTCCheckoutwithCredit</t>
+  </si>
+  <si>
+    <t>IPPMCheckout</t>
+  </si>
+  <si>
+    <t>CheckMissMatchCurrency</t>
+  </si>
+  <si>
+    <t>OTCCheckoutwithGBCredit</t>
+  </si>
+  <si>
+    <t>MonthlyCheckoutAutorenew</t>
   </si>
   <si>
     <t>test desc</t>
@@ -227,7 +253,7 @@
     <t>06001</t>
   </si>
   <si>
-    <t>testbilling@mallinator.com</t>
+    <t>jypsyg@surveymonkey.com</t>
   </si>
   <si>
     <t>VISA</t>
@@ -275,13 +301,25 @@
     <t>D2P</t>
   </si>
   <si>
-    <t>$276</t>
-  </si>
-  <si>
     <t>invoice</t>
   </si>
   <si>
+    <t>testtest$123</t>
+  </si>
+  <si>
     <t>teamadvantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLEX PACKAGE</t>
+  </si>
+  <si>
+    <t>Every 1 Month</t>
+  </si>
+  <si>
+    <t>$19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SurveyMonkey Flex Package</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ADVANTAGE</t>
@@ -294,21 +332,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>testtest$123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLEX PACKAGE</t>
-  </si>
-  <si>
-    <t>Every 1 Month</t>
-  </si>
-  <si>
-    <t>$19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SurveyMonkey Flex Package</t>
   </si>
   <si>
     <t>UpgradedPlanName</t>
@@ -358,17 +381,59 @@
   <si>
     <t>12345-123</t>
   </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>IPPM Check</t>
+  </si>
+  <si>
+    <t>CheckMissMactchCurrency</t>
+  </si>
+  <si>
+    <t>Sk13TA</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>$276</t>
+  </si>
+  <si>
+    <t>AutoRenewDisbaled</t>
+  </si>
+  <si>
+    <t>standardmonthly</t>
+  </si>
+  <si>
+    <t>creditcardmonthly</t>
+  </si>
+  <si>
+    <t>STANDARD MONTHLY</t>
+  </si>
+  <si>
+    <t>$99</t>
+  </si>
+  <si>
+    <t>£0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -415,20 +480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -452,15 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,6 +517,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -482,17 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +565,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,14 +594,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,25 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,13 +641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +677,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,25 +743,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,72 +798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,6 +820,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -773,34 +853,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,16 +900,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,19 +929,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,109 +950,109 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A1:E16384"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1655,12 +1720,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="25" s="1" customFormat="1"/>
     <row r="26" s="1" customFormat="1"/>
     <row r="27" s="1" customFormat="1"/>
@@ -18033,80 +18194,80 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18114,75 +18275,75 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18195,80 +18356,80 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18276,75 +18437,75 @@
         <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18357,7 +18518,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -18368,143 +18529,143 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18517,80 +18678,80 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18598,75 +18759,75 @@
         <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18679,77 +18840,77 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
@@ -18757,72 +18918,72 @@
         <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18835,7 +18996,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="$A1:$XFD2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -18845,73 +19006,73 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="135" spans="1:23">
@@ -18919,75 +19080,75 @@
         <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -18999,157 +19160,160 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="23" max="23" width="26.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="90" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="270" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19161,78 +19325,78 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -19240,74 +19404,378 @@
         <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W2" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
-  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -19334,58 +19802,839 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="14" max="14" width="13.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -19396,8 +20645,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19429,143 +20678,143 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19577,8 +20826,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19610,143 +20859,143 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19759,7 +21008,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19791,70 +21040,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
@@ -19862,72 +21111,72 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -19939,8 +21188,179 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="3" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5714285714286" style="1" customWidth="1"/>
+    <col min="16" max="19" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -19972,314 +21392,143 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="V2" s="10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="9.85714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="16" max="19" width="9.14285714285714" style="1"/>
-    <col min="20" max="20" width="33.4285714285714" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -20292,7 +21541,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -20302,70 +21551,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -20373,72 +21622,72 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -20451,7 +21700,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -20461,70 +21710,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -20532,72 +21781,72 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="testbilling@mallinator.com" tooltip="mailto:testbilling@mallinator.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/TestData2.xlsx
+++ b/TestData/TestData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="5220" firstSheet="21" activeTab="23"/>
+    <workbookView windowWidth="18930" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,17 @@
     <sheet name="OTCCheckoutwithGBCredit" sheetId="23" r:id="rId22"/>
     <sheet name="D2PEDUCheckout" sheetId="24" r:id="rId23"/>
     <sheet name="MonthlyCheckoutAutorenew" sheetId="25" r:id="rId24"/>
+    <sheet name="EUTeamMemberCheck" sheetId="26" r:id="rId25"/>
+    <sheet name="EUPrimaryMemberCheck" sheetId="27" r:id="rId26"/>
+    <sheet name="MonthlyToAnnualUpgrade" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:W2"/>
+  <oleSize ref="H1:AD2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="135">
   <si>
     <t>Module</t>
   </si>
@@ -145,6 +148,15 @@
     <t>MonthlyCheckoutAutorenew</t>
   </si>
   <si>
+    <t>EUTeamMemberCheck</t>
+  </si>
+  <si>
+    <t>EUPrimaryMemberCheck</t>
+  </si>
+  <si>
+    <t>MonthlyToAnnualUpgrade</t>
+  </si>
+  <si>
     <t>test desc</t>
   </si>
   <si>
@@ -241,10 +253,7 @@
     <t>B2P</t>
   </si>
   <si>
-    <t>TestFirst</t>
-  </si>
-  <si>
-    <t>TestLast</t>
+    <t>Áß</t>
   </si>
   <si>
     <t>US</t>
@@ -337,6 +346,12 @@
     <t>UpgradedPlanName</t>
   </si>
   <si>
+    <t>TestFirst</t>
+  </si>
+  <si>
+    <t>TestLast</t>
+  </si>
+  <si>
     <t>Overage Invoice</t>
   </si>
   <si>
@@ -409,6 +424,9 @@
     <t>AutoRenewDisbaled</t>
   </si>
   <si>
+    <t>DisabledBillingAmount</t>
+  </si>
+  <si>
     <t>standardmonthly</t>
   </si>
   <si>
@@ -421,7 +439,13 @@
     <t>$99</t>
   </si>
   <si>
-    <t>£0</t>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>ENTERPRISE  Team</t>
   </si>
 </sst>
 </file>
@@ -429,8 +453,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -479,8 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,6 +519,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -501,9 +534,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,7 +550,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,11 +571,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,38 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,21 +627,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,25 +641,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +725,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,13 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,121 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,15 +832,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,17 +868,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +885,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,18 +926,16 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,25 +953,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,103 +980,103 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:E16384"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1822,9 +1846,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="28" s="1" customFormat="1"/>
     <row r="29" s="1" customFormat="1"/>
     <row r="30" s="1" customFormat="1"/>
@@ -18194,80 +18266,80 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18275,70 +18347,70 @@
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -18363,73 +18435,73 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18437,70 +18509,70 @@
         <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -18529,138 +18601,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -18685,73 +18757,73 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -18759,70 +18831,70 @@
         <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -18847,70 +18919,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
@@ -18918,67 +18990,67 @@
         <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -19006,73 +19078,73 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="135" spans="1:23">
@@ -19080,70 +19152,70 @@
         <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -19171,144 +19243,144 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -19333,70 +19405,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -19404,67 +19476,67 @@
         <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="3"/>
     </row>
@@ -19487,70 +19559,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
@@ -19558,67 +19630,67 @@
         <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W2" s="3"/>
     </row>
@@ -19641,70 +19713,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -19712,67 +19784,67 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -19802,55 +19874,55 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -19872,138 +19944,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20025,138 +20097,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20182,70 +20254,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -20253,67 +20325,67 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20335,138 +20407,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20481,154 +20553,628 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="30" spans="1:23">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jypsyg@surveymonkey.com" tooltip="mailto:jypsyg@surveymonkey.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="G2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20646,7 +21192,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="$A1:$XFD2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -20678,138 +21224,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20826,8 +21372,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="$A1:$XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -20859,138 +21405,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
       <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -21008,7 +21554,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21040,70 +21586,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="30" spans="1:22">
@@ -21111,67 +21657,67 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -21189,7 +21735,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21211,70 +21757,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -21282,67 +21828,67 @@
         <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -21360,7 +21906,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21392,138 +21938,138 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="16" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -21541,7 +22087,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21551,70 +22097,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -21622,67 +22168,67 @@
         <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -21700,7 +22246,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -21710,70 +22256,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="31" customHeight="1" spans="1:22">
@@ -21781,67 +22327,67 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData2.xlsx
+++ b/TestData/TestData2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="5220"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="MonthlyToAnnualUpgrade" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="H1:AD2"/>
+  <oleSize ref="L1:AH2"/>
 </workbook>
 </file>
 
@@ -454,10 +454,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -497,7 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +505,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,14 +513,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,14 +527,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,15 +535,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,33 +555,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,15 +580,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +641,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,43 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,127 +815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,16 +836,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,34 +877,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,8 +886,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,16 +909,33 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,130 +953,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:E16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -21191,7 +21191,7 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -21905,8 +21905,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
